--- a/data/trans_orig/P44-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P44-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>20177</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12076</v>
+        <v>12277</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30895</v>
+        <v>32231</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1443038812214378</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08636551609746501</v>
+        <v>0.08780114124868754</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2209502586704586</v>
+        <v>0.2305098566440904</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -764,19 +764,19 @@
         <v>13374</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7498</v>
+        <v>7488</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20823</v>
+        <v>21741</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2329104211275155</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1305822987508348</v>
+        <v>0.1303980220349938</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.362634586543608</v>
+        <v>0.378622426372794</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -785,19 +785,19 @@
         <v>33552</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23209</v>
+        <v>22045</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>46281</v>
+        <v>46458</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1700986206047913</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1176627190019865</v>
+        <v>0.1117608668226859</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2346319096558385</v>
+        <v>0.2355297016366519</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>119649</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>108931</v>
+        <v>107595</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>127750</v>
+        <v>127549</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8556961187785622</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7790497413295414</v>
+        <v>0.7694901433559098</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9136344839025351</v>
+        <v>0.9121988587513125</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>39</v>
@@ -835,19 +835,19 @@
         <v>44048</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>36599</v>
+        <v>35681</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>49924</v>
+        <v>49934</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7670895788724845</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6373654134563915</v>
+        <v>0.6213775736272061</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8694177012491653</v>
+        <v>0.8696019779650064</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>144</v>
@@ -856,19 +856,19 @@
         <v>163696</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>150967</v>
+        <v>150790</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>174039</v>
+        <v>175203</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8299013793952088</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7653680903441611</v>
+        <v>0.7644702983633481</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8823372809980136</v>
+        <v>0.8882391331773138</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>16229</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9337</v>
+        <v>9796</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26215</v>
+        <v>25231</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1106631757147566</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0636720627172192</v>
+        <v>0.0668019735001274</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1787599818328373</v>
+        <v>0.17204978965752</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -981,19 +981,19 @@
         <v>8308</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3698</v>
+        <v>3863</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15963</v>
+        <v>16119</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1223530474699019</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05446741887292207</v>
+        <v>0.05688902804672891</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2350982128946817</v>
+        <v>0.2373921489783214</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -1002,19 +1002,19 @@
         <v>24537</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15990</v>
+        <v>15827</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>36790</v>
+        <v>36792</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1143627691310602</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.074527245493915</v>
+        <v>0.07376707127681968</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1714766128560753</v>
+        <v>0.1714843260678845</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>130420</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>120434</v>
+        <v>121418</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>137312</v>
+        <v>136853</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8893368242852434</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8212400181671629</v>
+        <v>0.8279502103424794</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9363279372827807</v>
+        <v>0.9331980264998725</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>53</v>
@@ -1052,19 +1052,19 @@
         <v>59592</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>51937</v>
+        <v>51781</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>64202</v>
+        <v>64037</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8776469525300982</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7649017871053183</v>
+        <v>0.7626078510216791</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9455325811270784</v>
+        <v>0.9431109719532714</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>163</v>
@@ -1073,19 +1073,19 @@
         <v>190013</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>177760</v>
+        <v>177758</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>198560</v>
+        <v>198723</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8856372308689398</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8285233871439247</v>
+        <v>0.8285156739321156</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9254727545060853</v>
+        <v>0.9262329287231804</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>29288</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19600</v>
+        <v>19514</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43793</v>
+        <v>42587</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1142342414587588</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07644835866254211</v>
+        <v>0.07611187436475644</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1708100388938471</v>
+        <v>0.1661091832113706</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -1198,19 +1198,19 @@
         <v>10902</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5068</v>
+        <v>5725</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19132</v>
+        <v>20366</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09215857079986398</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04284158880339838</v>
+        <v>0.04839748396807157</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1617259899617644</v>
+        <v>0.1721514782324737</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>33</v>
@@ -1219,19 +1219,19 @@
         <v>40190</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>27767</v>
+        <v>27800</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>56621</v>
+        <v>55604</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1072641779125839</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.074108697600353</v>
+        <v>0.07419629962274799</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1511169786012798</v>
+        <v>0.1484025798247257</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>227094</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>212589</v>
+        <v>213795</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>236782</v>
+        <v>236868</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8857657585412412</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.829189961106153</v>
+        <v>0.8338908167886293</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.923551641337458</v>
+        <v>0.9238881256352436</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>100</v>
@@ -1269,19 +1269,19 @@
         <v>107398</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>99168</v>
+        <v>97934</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>113232</v>
+        <v>112575</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.907841429200136</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8382740100382357</v>
+        <v>0.8278485217675262</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9571584111966016</v>
+        <v>0.9516025160319285</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>306</v>
@@ -1290,19 +1290,19 @@
         <v>334492</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>318061</v>
+        <v>319078</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>346915</v>
+        <v>346882</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8927358220874161</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8488830213987201</v>
+        <v>0.8515974201752741</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.925891302399647</v>
+        <v>0.925803700377252</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>38494</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>26534</v>
+        <v>27343</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>52390</v>
+        <v>54191</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08419349884077114</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05803387154746247</v>
+        <v>0.05980383675389859</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1145861293471616</v>
+        <v>0.118524806211027</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -1415,19 +1415,19 @@
         <v>15472</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8876</v>
+        <v>8418</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24897</v>
+        <v>24036</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0788283484729603</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04522484736942633</v>
+        <v>0.04289079144665534</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1268509931291653</v>
+        <v>0.1224652234358144</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>49</v>
@@ -1436,19 +1436,19 @@
         <v>53966</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>40499</v>
+        <v>40029</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>68827</v>
+        <v>69963</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0825821051297017</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06197505036354781</v>
+        <v>0.06125562575603734</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1053242925464185</v>
+        <v>0.1070614268791181</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>418716</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>404820</v>
+        <v>403019</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>430676</v>
+        <v>429867</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9158065011592289</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8854138706528387</v>
+        <v>0.881475193788973</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9419661284525376</v>
+        <v>0.9401961632461013</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>163</v>
@@ -1486,19 +1486,19 @@
         <v>180797</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>171372</v>
+        <v>172233</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>187393</v>
+        <v>187851</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9211716515270397</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8731490068708352</v>
+        <v>0.8775347765641857</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9547751526305738</v>
+        <v>0.9571092085533447</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>549</v>
@@ -1507,19 +1507,19 @@
         <v>599514</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>584653</v>
+        <v>583517</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>612981</v>
+        <v>613451</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9174178948702983</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8946757074535814</v>
+        <v>0.892938573120882</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9380249496364521</v>
+        <v>0.9387443742439626</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>9569</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4271</v>
+        <v>4344</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17143</v>
+        <v>17726</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05037595689828859</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0224866364317858</v>
+        <v>0.02286733172883047</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09025386284423559</v>
+        <v>0.09332427412605179</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -1632,19 +1632,19 @@
         <v>26930</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18436</v>
+        <v>17598</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>39088</v>
+        <v>38158</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.075003855256493</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05134783295849012</v>
+        <v>0.04901275509701278</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.108867822795483</v>
+        <v>0.1062757929429117</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>33</v>
@@ -1653,19 +1653,19 @@
         <v>36498</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>27211</v>
+        <v>25725</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>51976</v>
+        <v>50649</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06648284932067548</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04956503703791137</v>
+        <v>0.0468591687516945</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09467498384827695</v>
+        <v>0.09225884227398773</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>180376</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>172802</v>
+        <v>172219</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>185674</v>
+        <v>185601</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9496240431017114</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9097461371557644</v>
+        <v>0.9066757258739481</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9775133635682142</v>
+        <v>0.9771326682711695</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>307</v>
@@ -1703,19 +1703,19 @@
         <v>332115</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>319957</v>
+        <v>320887</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>340609</v>
+        <v>341447</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.924996144743507</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8911321772045179</v>
+        <v>0.8937242070570884</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9486521670415101</v>
+        <v>0.9509872449029874</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>474</v>
@@ -1724,19 +1724,19 @@
         <v>512491</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>497013</v>
+        <v>498340</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>521778</v>
+        <v>523264</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9335171506793245</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9053250161517231</v>
+        <v>0.9077411577260124</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9504349629620886</v>
+        <v>0.9531408312483056</v>
       </c>
     </row>
     <row r="18">
@@ -1841,19 +1841,19 @@
         <v>34083</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>24120</v>
+        <v>23902</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>48647</v>
+        <v>45924</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0513783401798821</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03635993766544332</v>
+        <v>0.03603142806059915</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07333277524653817</v>
+        <v>0.06922851360723359</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>32</v>
@@ -1862,19 +1862,19 @@
         <v>34083</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>23782</v>
+        <v>23665</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>46666</v>
+        <v>48225</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05106764198721108</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03563410532908919</v>
+        <v>0.0354582859054119</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.069922080604315</v>
+        <v>0.07225792063293394</v>
       </c>
     </row>
     <row r="20">
@@ -1904,19 +1904,19 @@
         <v>629287</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>614723</v>
+        <v>617446</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>639250</v>
+        <v>639468</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9486216598201179</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9266672247534619</v>
+        <v>0.9307714863927664</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9636400623345567</v>
+        <v>0.9639685719394009</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>587</v>
@@ -1925,19 +1925,19 @@
         <v>633323</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>620740</v>
+        <v>619181</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>643624</v>
+        <v>643741</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.948932358012789</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9300779193956851</v>
+        <v>0.927742079367066</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9643658946709111</v>
+        <v>0.9645417140945881</v>
       </c>
     </row>
     <row r="21">
@@ -2029,19 +2029,19 @@
         <v>113757</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>91431</v>
+        <v>93705</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>134591</v>
+        <v>137880</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0952695920274603</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07657237801550149</v>
+        <v>0.07847691551996094</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1127179516349354</v>
+        <v>0.115472612613822</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>99</v>
@@ -2050,19 +2050,19 @@
         <v>109069</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>87994</v>
+        <v>89779</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>130059</v>
+        <v>133448</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07458665561030528</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06017512372464873</v>
+        <v>0.0613953479930586</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08894069014316558</v>
+        <v>0.09125858483448013</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>197</v>
@@ -2071,19 +2071,19 @@
         <v>222825</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>193417</v>
+        <v>194567</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>256340</v>
+        <v>255547</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08388376983006869</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07281293270447117</v>
+        <v>0.07324577104444993</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0965006051594775</v>
+        <v>0.09620231963133334</v>
       </c>
     </row>
     <row r="23">
@@ -2100,19 +2100,19 @@
         <v>1080292</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1059458</v>
+        <v>1056169</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1102618</v>
+        <v>1100344</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9047304079725397</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8872820483650646</v>
+        <v>0.8845273873861781</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9234276219844987</v>
+        <v>0.9215230844800391</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1245</v>
@@ -2121,19 +2121,19 @@
         <v>1353237</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1332247</v>
+        <v>1328858</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1374312</v>
+        <v>1372527</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9254133443896947</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9110593098568341</v>
+        <v>0.90874141516552</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9398248762753513</v>
+        <v>0.9386046520069417</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2223</v>
@@ -2142,19 +2142,19 @@
         <v>2433529</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2400014</v>
+        <v>2400807</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2462937</v>
+        <v>2461787</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9161162301699313</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9034993948405224</v>
+        <v>0.9037976803686663</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9271870672955288</v>
+        <v>0.92675422895555</v>
       </c>
     </row>
     <row r="24">
@@ -2488,19 +2488,19 @@
         <v>30937</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21250</v>
+        <v>21707</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>44356</v>
+        <v>42979</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1787906104816862</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1228054541138086</v>
+        <v>0.1254492174412535</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2563377362274665</v>
+        <v>0.2483825019939421</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -2509,19 +2509,19 @@
         <v>11089</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4945</v>
+        <v>5145</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19144</v>
+        <v>19753</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1013836343315583</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04521403005516329</v>
+        <v>0.04704337631150616</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1750371781541541</v>
+        <v>0.1806006142798569</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>35</v>
@@ -2530,19 +2530,19 @@
         <v>42026</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30215</v>
+        <v>29840</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>55558</v>
+        <v>55817</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1488118997521598</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1069914228012385</v>
+        <v>0.1056640800707787</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1967295791486933</v>
+        <v>0.197645393992671</v>
       </c>
     </row>
     <row r="5">
@@ -2559,19 +2559,19 @@
         <v>142099</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>128680</v>
+        <v>130057</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>151786</v>
+        <v>151329</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8212093895183138</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7436622637725333</v>
+        <v>0.7516174980060577</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8771945458861912</v>
+        <v>0.8745507825587465</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>84</v>
@@ -2580,19 +2580,19 @@
         <v>98284</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>90229</v>
+        <v>89620</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>104428</v>
+        <v>104228</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8986163656684417</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8249628218458464</v>
+        <v>0.8193993857201429</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9547859699448368</v>
+        <v>0.9529566236884938</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>216</v>
@@ -2601,19 +2601,19 @@
         <v>240383</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>226851</v>
+        <v>226592</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>252194</v>
+        <v>252569</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8511881002478402</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8032704208513067</v>
+        <v>0.8023546060073293</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8930085771987616</v>
+        <v>0.8943359199292216</v>
       </c>
     </row>
     <row r="6">
@@ -2705,19 +2705,19 @@
         <v>26947</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18979</v>
+        <v>18129</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38153</v>
+        <v>37480</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1878459587147409</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1323015977004277</v>
+        <v>0.12637398491904</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2659602872687972</v>
+        <v>0.261268735802416</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -2726,19 +2726,19 @@
         <v>5316</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2046</v>
+        <v>1971</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11000</v>
+        <v>11774</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05530989324819537</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02128851663957906</v>
+        <v>0.02051025953426229</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1144471810551664</v>
+        <v>0.1224950450906743</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>30</v>
@@ -2747,19 +2747,19 @@
         <v>32263</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22180</v>
+        <v>22687</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>43317</v>
+        <v>44087</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1346724153415021</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09258289553147968</v>
+        <v>0.09469977875441139</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1808113264453669</v>
+        <v>0.1840250905701308</v>
       </c>
     </row>
     <row r="8">
@@ -2776,19 +2776,19 @@
         <v>116506</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>105300</v>
+        <v>105973</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>124474</v>
+        <v>125324</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8121540412852591</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7340397127312025</v>
+        <v>0.7387312641975841</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8676984022995722</v>
+        <v>0.87362601508096</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>77</v>
@@ -2797,19 +2797,19 @@
         <v>90799</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>85115</v>
+        <v>84341</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>94069</v>
+        <v>94144</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9446901067518046</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8855528189448336</v>
+        <v>0.8775049549093258</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9787114833604209</v>
+        <v>0.9794897404657377</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>188</v>
@@ -2818,19 +2818,19 @@
         <v>207305</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>196251</v>
+        <v>195481</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>217388</v>
+        <v>216881</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8653275846584979</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8191886735546331</v>
+        <v>0.8159749094298692</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9074171044685205</v>
+        <v>0.9053002212455886</v>
       </c>
     </row>
     <row r="9">
@@ -2922,19 +2922,19 @@
         <v>30018</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20255</v>
+        <v>20044</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42874</v>
+        <v>41358</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1121272418199394</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07565973802935834</v>
+        <v>0.07487341560034229</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1601505503016838</v>
+        <v>0.1544876937276292</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -2943,19 +2943,19 @@
         <v>7354</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3109</v>
+        <v>2989</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13868</v>
+        <v>13565</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0902895501300895</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03816776962267666</v>
+        <v>0.03669519823347581</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1702707595719817</v>
+        <v>0.166561002745597</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>35</v>
@@ -2964,19 +2964,19 @@
         <v>37371</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>26701</v>
+        <v>26042</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>49281</v>
+        <v>49322</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.107033365997965</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07647364520472874</v>
+        <v>0.07458557625483962</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.141145328806523</v>
+        <v>0.1412607395157683</v>
       </c>
     </row>
     <row r="11">
@@ -2993,19 +2993,19 @@
         <v>237692</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>224836</v>
+        <v>226352</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>247455</v>
+        <v>247666</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8878727581800606</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8398494496983162</v>
+        <v>0.8455123062723708</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9243402619706416</v>
+        <v>0.9251265843996577</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>62</v>
@@ -3014,19 +3014,19 @@
         <v>74090</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>67576</v>
+        <v>67879</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>78335</v>
+        <v>78455</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9097104498699105</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8297292404280182</v>
+        <v>0.833438997254403</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9618322303773233</v>
+        <v>0.9633048017665242</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>296</v>
@@ -3035,19 +3035,19 @@
         <v>311782</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>299872</v>
+        <v>299831</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>322452</v>
+        <v>323111</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.892966634002035</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.858854671193477</v>
+        <v>0.8587392604842314</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9235263547952713</v>
+        <v>0.92541442374516</v>
       </c>
     </row>
     <row r="12">
@@ -3139,19 +3139,19 @@
         <v>52032</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>38941</v>
+        <v>41181</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>66460</v>
+        <v>67894</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09733809446206147</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07284785343142082</v>
+        <v>0.07703887455823753</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1243283273353982</v>
+        <v>0.1270106517977487</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -3160,19 +3160,19 @@
         <v>24305</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15447</v>
+        <v>15150</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>36134</v>
+        <v>36175</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09496462146185516</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06035515320999136</v>
+        <v>0.05919459595903501</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1411809246467966</v>
+        <v>0.1413423188375591</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>73</v>
@@ -3181,19 +3181,19 @@
         <v>76338</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>60905</v>
+        <v>60172</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>93726</v>
+        <v>94961</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09656962713073482</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07704670531607559</v>
+        <v>0.07611931463366753</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1185666711250162</v>
+        <v>0.12012811525354</v>
       </c>
     </row>
     <row r="14">
@@ -3210,19 +3210,19 @@
         <v>482521</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>468093</v>
+        <v>466659</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>495612</v>
+        <v>493372</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9026619055379386</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8756716726646018</v>
+        <v>0.8729893482022513</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9271521465685792</v>
+        <v>0.9229611254417625</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>205</v>
@@ -3231,19 +3231,19 @@
         <v>231636</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>219807</v>
+        <v>219766</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>240494</v>
+        <v>240791</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9050353785381449</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8588190753532036</v>
+        <v>0.8586576811624412</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9396448467900087</v>
+        <v>0.940805404040965</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>666</v>
@@ -3252,19 +3252,19 @@
         <v>714156</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>696768</v>
+        <v>695533</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>729589</v>
+        <v>730322</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9034303728692652</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8814333288749834</v>
+        <v>0.8798718847464602</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9229532946839244</v>
+        <v>0.9238806853663328</v>
       </c>
     </row>
     <row r="15">
@@ -3356,19 +3356,19 @@
         <v>24934</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17239</v>
+        <v>16419</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35666</v>
+        <v>34819</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09139521581145676</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06319117244710713</v>
+        <v>0.06018329657295641</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1307325583610416</v>
+        <v>0.1276305298900626</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>26</v>
@@ -3377,19 +3377,19 @@
         <v>29557</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19765</v>
+        <v>20450</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>42553</v>
+        <v>43057</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07751767318397695</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05183718309323342</v>
+        <v>0.05363409247825602</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.11160203901407</v>
+        <v>0.1129239659050226</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>53</v>
@@ -3398,19 +3398,19 @@
         <v>54491</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>42229</v>
+        <v>41005</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>69335</v>
+        <v>70311</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08330570837420777</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06456057816366957</v>
+        <v>0.06268893705393762</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1060002065353688</v>
+        <v>0.1074912069196481</v>
       </c>
     </row>
     <row r="17">
@@ -3427,19 +3427,19 @@
         <v>247880</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>237148</v>
+        <v>237995</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>255575</v>
+        <v>256395</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9086047841885432</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8692674416389585</v>
+        <v>0.8723694701099372</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9368088275528929</v>
+        <v>0.9398167034270436</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>313</v>
@@ -3448,19 +3448,19 @@
         <v>351735</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>338739</v>
+        <v>338235</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>361527</v>
+        <v>360842</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.922482326816023</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8883979609859299</v>
+        <v>0.8870760340949774</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9481628169067665</v>
+        <v>0.946365907521744</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>560</v>
@@ -3469,19 +3469,19 @@
         <v>599614</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>584770</v>
+        <v>583794</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>611876</v>
+        <v>613100</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9166942916257922</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8939997934646301</v>
+        <v>0.8925087930803519</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9354394218363302</v>
+        <v>0.9373110629460633</v>
       </c>
     </row>
     <row r="18">
@@ -3586,19 +3586,19 @@
         <v>40469</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>29196</v>
+        <v>28862</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>56041</v>
+        <v>54945</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06116915498874497</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04412909306040645</v>
+        <v>0.04362517423908551</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08470509267442755</v>
+        <v>0.08304937863129006</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>35</v>
@@ -3607,19 +3607,19 @@
         <v>40469</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>29388</v>
+        <v>28198</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>55386</v>
+        <v>56319</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06064629191652367</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04404088562992386</v>
+        <v>0.04225700573164534</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08300031928704375</v>
+        <v>0.0843976706171357</v>
       </c>
     </row>
     <row r="20">
@@ -3649,19 +3649,19 @@
         <v>621127</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>605555</v>
+        <v>606651</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>632400</v>
+        <v>632734</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.938830845011255</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9152949073255724</v>
+        <v>0.9169506213687091</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9558709069395935</v>
+        <v>0.9563748257609143</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>540</v>
@@ -3670,19 +3670,19 @@
         <v>626831</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>611914</v>
+        <v>610981</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>637912</v>
+        <v>639102</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9393537080834763</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9169996807129565</v>
+        <v>0.9156023293828646</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9559591143700762</v>
+        <v>0.9577429942683547</v>
       </c>
     </row>
     <row r="21">
@@ -3774,19 +3774,19 @@
         <v>164868</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>140338</v>
+        <v>142698</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>189810</v>
+        <v>191787</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1179930326699035</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.100437406987514</v>
+        <v>0.1021267067254365</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1358437185188737</v>
+        <v>0.1372587987703761</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>102</v>
@@ -3795,19 +3795,19 @@
         <v>118090</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>96730</v>
+        <v>96330</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>143597</v>
+        <v>141234</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07446882973106339</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06099894710791551</v>
+        <v>0.06074693291618789</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09055403387546</v>
+        <v>0.08906356632293784</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>261</v>
@@ -3816,19 +3816,19 @@
         <v>282958</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>250683</v>
+        <v>248792</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>317169</v>
+        <v>315588</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09485582975059154</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0840363448753335</v>
+        <v>0.08340242252880632</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1063244601452261</v>
+        <v>0.1057945558310943</v>
       </c>
     </row>
     <row r="23">
@@ -3845,19 +3845,19 @@
         <v>1232401</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1207459</v>
+        <v>1205482</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1256931</v>
+        <v>1254571</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8820069673300965</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8641562814811269</v>
+        <v>0.8627412012296241</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8995625930124864</v>
+        <v>0.8978732932745636</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1276</v>
@@ -3866,19 +3866,19 @@
         <v>1467671</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1442164</v>
+        <v>1444527</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1489031</v>
+        <v>1489431</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9255311702689366</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9094459661245401</v>
+        <v>0.9109364336770622</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9390010528920846</v>
+        <v>0.9392530670838121</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2466</v>
@@ -3887,19 +3887,19 @@
         <v>2700072</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2665861</v>
+        <v>2667442</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2732347</v>
+        <v>2734238</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9051441702494085</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8936755398547747</v>
+        <v>0.8942054441689056</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.915963655124667</v>
+        <v>0.9165975774711936</v>
       </c>
     </row>
     <row r="24">
@@ -4233,19 +4233,19 @@
         <v>137732</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>122617</v>
+        <v>122984</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>152598</v>
+        <v>153177</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5076947726249447</v>
+        <v>0.5076947726249446</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4519789944972732</v>
+        <v>0.4533310268901014</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5624924701204307</v>
+        <v>0.5646280590769832</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>134</v>
@@ -4254,19 +4254,19 @@
         <v>83088</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>72889</v>
+        <v>73184</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>93903</v>
+        <v>94084</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4270164531864654</v>
+        <v>0.4270164531864655</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3746046487651956</v>
+        <v>0.3761209026410044</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4825989740345777</v>
+        <v>0.4835323573889826</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>303</v>
@@ -4275,19 +4275,19 @@
         <v>220820</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>202569</v>
+        <v>201478</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>238818</v>
+        <v>239250</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4739981153705891</v>
+        <v>0.4739981153705892</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4348226483228273</v>
+        <v>0.4324814732050618</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5126318381521793</v>
+        <v>0.5135591437869818</v>
       </c>
     </row>
     <row r="5">
@@ -4304,19 +4304,19 @@
         <v>133557</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>118691</v>
+        <v>118112</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>148672</v>
+        <v>148305</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4923052273750553</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4375075298795695</v>
+        <v>0.4353719409230167</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5480210055027269</v>
+        <v>0.5466689731098986</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>188</v>
@@ -4325,19 +4325,19 @@
         <v>111489</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>100674</v>
+        <v>100493</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>121688</v>
+        <v>121393</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.5729835468135345</v>
+        <v>0.5729835468135347</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5174010259654224</v>
+        <v>0.5164676426110179</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6253953512348045</v>
+        <v>0.6238790973589958</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>352</v>
@@ -4346,19 +4346,19 @@
         <v>245046</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>227048</v>
+        <v>226616</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>263297</v>
+        <v>264388</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.5260018846294108</v>
+        <v>0.5260018846294109</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4873681618478208</v>
+        <v>0.4864408562130182</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5651773516771729</v>
+        <v>0.5675185267949383</v>
       </c>
     </row>
     <row r="6">
@@ -4450,19 +4450,19 @@
         <v>85974</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>71999</v>
+        <v>72464</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>100312</v>
+        <v>98828</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.361776986551396</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3029707024005929</v>
+        <v>0.3049292166436427</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4221119950397792</v>
+        <v>0.4158683857995008</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>91</v>
@@ -4471,19 +4471,19 @@
         <v>55523</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>46558</v>
+        <v>46192</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>66016</v>
+        <v>64331</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.347969427448792</v>
+        <v>0.3479694274487919</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2917849272135395</v>
+        <v>0.2894915300636505</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4137325189180855</v>
+        <v>0.4031721474523793</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>195</v>
@@ -4492,19 +4492,19 @@
         <v>141497</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>125192</v>
+        <v>125492</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>157824</v>
+        <v>157541</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3562302928854024</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3151809982323772</v>
+        <v>0.3159370796256657</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.397334604895361</v>
+        <v>0.3966227543001657</v>
       </c>
     </row>
     <row r="8">
@@ -4521,19 +4521,19 @@
         <v>151669</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>137331</v>
+        <v>138815</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>165644</v>
+        <v>165179</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6382230134486041</v>
+        <v>0.6382230134486039</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5778880049602209</v>
+        <v>0.5841316142004992</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.697029297599407</v>
+        <v>0.6950707833563573</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>170</v>
@@ -4542,19 +4542,19 @@
         <v>104040</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>93547</v>
+        <v>95232</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>113005</v>
+        <v>113371</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.652030572551208</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5862674810819142</v>
+        <v>0.5968278525476207</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7082150727864605</v>
+        <v>0.7105084699363496</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>348</v>
@@ -4563,19 +4563,19 @@
         <v>255709</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>239382</v>
+        <v>239665</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>272014</v>
+        <v>271714</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6437697071145976</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.602665395104639</v>
+        <v>0.6033772456998346</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6848190017676229</v>
+        <v>0.6840629203743345</v>
       </c>
     </row>
     <row r="9">
@@ -4667,19 +4667,19 @@
         <v>91438</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>78441</v>
+        <v>77479</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>105422</v>
+        <v>105565</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3852773331217238</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.330513576233043</v>
+        <v>0.3264601214323363</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4442005606550865</v>
+        <v>0.4448010015078504</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>59</v>
@@ -4688,19 +4688,19 @@
         <v>36020</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29274</v>
+        <v>29021</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44069</v>
+        <v>43831</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3276784327918603</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2663099037733574</v>
+        <v>0.2640043375626006</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4008992596793636</v>
+        <v>0.3987314738271373</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>176</v>
@@ -4709,19 +4709,19 @@
         <v>127458</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>112960</v>
+        <v>112132</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>142317</v>
+        <v>142821</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3670440874551957</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3252953282665366</v>
+        <v>0.3229089115606671</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4098331622988945</v>
+        <v>0.4112853051659494</v>
       </c>
     </row>
     <row r="11">
@@ -4738,19 +4738,19 @@
         <v>145892</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>131908</v>
+        <v>131765</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>158889</v>
+        <v>159851</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6147226668782761</v>
+        <v>0.6147226668782763</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5557994393449134</v>
+        <v>0.5551989984921495</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6694864237669567</v>
+        <v>0.6735398785676636</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>132</v>
@@ -4759,19 +4759,19 @@
         <v>73906</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>65857</v>
+        <v>66095</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>80652</v>
+        <v>80905</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6723215672081398</v>
+        <v>0.6723215672081397</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5991007403206365</v>
+        <v>0.6012685261728627</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7336900962266418</v>
+        <v>0.7359956624373994</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>308</v>
@@ -4780,19 +4780,19 @@
         <v>219797</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>204938</v>
+        <v>204434</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>234295</v>
+        <v>235123</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6329559125448043</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5901668377011055</v>
+        <v>0.5887146948340506</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6747046717334632</v>
+        <v>0.6770910884393331</v>
       </c>
     </row>
     <row r="12">
@@ -4884,19 +4884,19 @@
         <v>175722</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>155879</v>
+        <v>157775</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>194941</v>
+        <v>196369</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3209120192319315</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2846734400256482</v>
+        <v>0.2881368095195353</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3560113043374608</v>
+        <v>0.358618824181606</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>162</v>
@@ -4905,19 +4905,19 @@
         <v>93522</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>82307</v>
+        <v>81360</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>105296</v>
+        <v>105823</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2878251042627364</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2533106962786438</v>
+        <v>0.2503976200988732</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3240621840566112</v>
+        <v>0.3256836534731964</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>381</v>
@@ -4926,19 +4926,19 @@
         <v>269243</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>245066</v>
+        <v>245347</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>292682</v>
+        <v>292365</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3085901465838227</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2808797180322343</v>
+        <v>0.2812018830348497</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3354535708145471</v>
+        <v>0.3350905230388444</v>
       </c>
     </row>
     <row r="14">
@@ -4955,19 +4955,19 @@
         <v>371848</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>352629</v>
+        <v>351201</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>391691</v>
+        <v>389795</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6790879807680686</v>
+        <v>0.6790879807680684</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6439886956625394</v>
+        <v>0.641381175818394</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7153265599743519</v>
+        <v>0.7118631904804648</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>418</v>
@@ -4976,19 +4976,19 @@
         <v>231403</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>219629</v>
+        <v>219102</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>242618</v>
+        <v>243565</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7121748957372636</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6759378159433889</v>
+        <v>0.6743163465268027</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7466893037213561</v>
+        <v>0.7496023799011267</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>869</v>
@@ -4997,19 +4997,19 @@
         <v>603252</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>579813</v>
+        <v>580130</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>627429</v>
+        <v>627148</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6914098534161772</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6645464291854529</v>
+        <v>0.6649094769611557</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7191202819677667</v>
+        <v>0.7187981169651504</v>
       </c>
     </row>
     <row r="15">
@@ -5101,19 +5101,19 @@
         <v>74345</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>61053</v>
+        <v>62220</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>87670</v>
+        <v>88757</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2869632474207832</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2356576323576525</v>
+        <v>0.2401610177349371</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3383949097007257</v>
+        <v>0.3425922293897846</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>214</v>
@@ -5122,19 +5122,19 @@
         <v>120620</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>107227</v>
+        <v>107507</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>137259</v>
+        <v>134803</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2639490863943021</v>
+        <v>0.263949086394302</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2346415160656873</v>
+        <v>0.235255006908367</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3003601731302543</v>
+        <v>0.2949851626989654</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>306</v>
@@ -5143,19 +5143,19 @@
         <v>194965</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>176126</v>
+        <v>174331</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>213393</v>
+        <v>215065</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.272275800470908</v>
+        <v>0.2722758004709081</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2459664119884299</v>
+        <v>0.2434586867027113</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2980112719531031</v>
+        <v>0.3003458471064638</v>
       </c>
     </row>
     <row r="17">
@@ -5172,19 +5172,19 @@
         <v>184731</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>171406</v>
+        <v>170319</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>198023</v>
+        <v>196856</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7130367525792169</v>
+        <v>0.7130367525792167</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6616050902992747</v>
+        <v>0.6574077706102154</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7643423676423478</v>
+        <v>0.7598389822650629</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>610</v>
@@ -5193,19 +5193,19 @@
         <v>336362</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>319723</v>
+        <v>322179</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>349755</v>
+        <v>349475</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.736050913605698</v>
+        <v>0.7360509136056979</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6996398268697458</v>
+        <v>0.7050148373010346</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7653584839343128</v>
+        <v>0.7647449930916331</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>828</v>
@@ -5214,19 +5214,19 @@
         <v>521093</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>502665</v>
+        <v>500993</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>539932</v>
+        <v>541727</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7277241995290917</v>
+        <v>0.7277241995290918</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7019887280468967</v>
+        <v>0.6996541528935361</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7540335880115697</v>
+        <v>0.7565413132972889</v>
       </c>
     </row>
     <row r="18">
@@ -5318,19 +5318,19 @@
         <v>3850</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1558</v>
+        <v>1513</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6739</v>
+        <v>7398</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3359987135142312</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.135947871239948</v>
+        <v>0.1320454556616981</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5881736630307476</v>
+        <v>0.6457443225182489</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>226</v>
@@ -5339,19 +5339,19 @@
         <v>132881</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>118347</v>
+        <v>118181</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>148309</v>
+        <v>149052</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2804825082858886</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2498044728107841</v>
+        <v>0.2494545763052814</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3130472488549901</v>
+        <v>0.3146173774159224</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>232</v>
@@ -5363,16 +5363,16 @@
         <v>122642</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>151909</v>
+        <v>152681</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2817933663479802</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2527585152708265</v>
+        <v>0.252757065077449</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3130763760135976</v>
+        <v>0.3146661256160628</v>
       </c>
     </row>
     <row r="20">
@@ -5389,19 +5389,19 @@
         <v>7607</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4718</v>
+        <v>4059</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9899</v>
+        <v>9944</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.6640012864857688</v>
+        <v>0.6640012864857687</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4118263369692522</v>
+        <v>0.3542556774817512</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8640521287600519</v>
+        <v>0.867954544338302</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>608</v>
@@ -5410,19 +5410,19 @@
         <v>340877</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>325449</v>
+        <v>324706</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>355411</v>
+        <v>355577</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7195174917141114</v>
+        <v>0.7195174917141115</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.68695275114501</v>
+        <v>0.6853826225840777</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.750195527189216</v>
+        <v>0.7505454236947188</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>617</v>
@@ -5431,7 +5431,7 @@
         <v>348485</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>333306</v>
+        <v>332534</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>362573</v>
@@ -5440,10 +5440,10 @@
         <v>0.7182066336520199</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6869236239864023</v>
+        <v>0.6853338743839372</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7472414847291737</v>
+        <v>0.7472429349225512</v>
       </c>
     </row>
     <row r="21">
@@ -5535,19 +5535,19 @@
         <v>569060</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>533411</v>
+        <v>534590</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>604848</v>
+        <v>604367</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3637644243099377</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3409760179098965</v>
+        <v>0.3417296195610068</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.386641610541522</v>
+        <v>0.3863341594734701</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>886</v>
@@ -5556,19 +5556,19 @@
         <v>521654</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>493525</v>
+        <v>493584</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>552673</v>
+        <v>549609</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3033342691707519</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.286978111270815</v>
+        <v>0.2870123310931124</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.321371552997765</v>
+        <v>0.3195899698919604</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1593</v>
@@ -5577,19 +5577,19 @@
         <v>1090714</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1042791</v>
+        <v>1047280</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1135936</v>
+        <v>1134136</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3321199008164968</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3175274511839009</v>
+        <v>0.3188945602548544</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3458900267114888</v>
+        <v>0.3453420618553313</v>
       </c>
     </row>
     <row r="23">
@@ -5606,19 +5606,19 @@
         <v>995304</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>959516</v>
+        <v>959997</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1030953</v>
+        <v>1029774</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6362355756900624</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.613358389458478</v>
+        <v>0.6136658405265296</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6590239820901035</v>
+        <v>0.6582703804389931</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2126</v>
@@ -5627,19 +5627,19 @@
         <v>1198078</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1167059</v>
+        <v>1170123</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1226207</v>
+        <v>1226148</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.696665730829248</v>
+        <v>0.6966657308292481</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.678628447002235</v>
+        <v>0.6804100301080395</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.713021888729185</v>
+        <v>0.7129876689068876</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3322</v>
@@ -5648,19 +5648,19 @@
         <v>2193382</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2148160</v>
+        <v>2149960</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2241305</v>
+        <v>2236816</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6678800991835032</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6541099732885111</v>
+        <v>0.6546579381446688</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6824725488160992</v>
+        <v>0.6811054397451456</v>
       </c>
     </row>
     <row r="24">
